--- a/Fig.12.xlsx
+++ b/Fig.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VPP\原始数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705B651-6F2D-4B90-B645-A037540A89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D0A115-F732-4A60-9167-96BDF4A99273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Stress</t>
   </si>
@@ -33,17 +33,134 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>MPa</t>
+    <t>Feature point</t>
   </si>
   <si>
-    <t>%</t>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>(Mpa)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +176,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -85,9 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,82 +497,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1127"/>
+  <dimension ref="A1:F1127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.4092199999999999</v>
       </c>
       <c r="B4" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.9658600000000002</v>
       </c>
       <c r="B5" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>300</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.49641</v>
       </c>
       <c r="B6" s="1">
         <v>6.43E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>161</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.0182599999999997</v>
       </c>
       <c r="B7" s="1">
         <v>7.7099999999999998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4.6097000000000001</v>
       </c>
       <c r="B8" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5.1576399999999998</v>
       </c>
@@ -453,7 +652,7 @@
         <v>1.0290000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5.7142900000000001</v>
       </c>
@@ -461,7 +660,7 @@
         <v>1.157E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6.30572</v>
       </c>
@@ -469,7 +668,7 @@
         <v>1.157E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6.9580299999999999</v>
       </c>
@@ -477,7 +676,7 @@
         <v>1.286E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7.5755600000000003</v>
       </c>
@@ -485,7 +684,7 @@
         <v>1.414E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8.1930899999999998</v>
       </c>
@@ -493,7 +692,7 @@
         <v>1.5429999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8.8714899999999997</v>
       </c>
@@ -501,7 +700,7 @@
         <v>1.6709999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>9.4281400000000009</v>
       </c>
@@ -9398,7 +9597,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fig.12.xlsx
+++ b/Fig.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VPP\原始数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D0A115-F732-4A60-9167-96BDF4A99273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A452D4-9BD6-48AD-98EF-D204C4FF04D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,20 @@
     <t>Feature point</t>
   </si>
   <si>
+    <t>(Mpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>b</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -49,7 +58,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -57,6 +66,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -65,7 +75,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -73,6 +83,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -81,7 +92,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -89,6 +100,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -97,7 +109,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -105,6 +117,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -113,7 +126,7 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -121,6 +134,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -140,27 +154,12 @@
       <t/>
     </r>
   </si>
-  <si>
-    <t>(Mpa)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +181,14 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,7 +510,7 @@
   <dimension ref="A1:F1127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -529,28 +539,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>27</v>
@@ -559,15 +569,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.4092199999999999</v>
       </c>
       <c r="B4" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>232</v>
@@ -576,15 +586,15 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.9658600000000002</v>
       </c>
       <c r="B5" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>300</v>
@@ -593,15 +603,15 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.49641</v>
       </c>
       <c r="B6" s="1">
         <v>6.43E-3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>161</v>
@@ -610,15 +620,15 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.0182599999999997</v>
       </c>
       <c r="B7" s="1">
         <v>7.7099999999999998E-3</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>71</v>
@@ -627,15 +637,15 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4.6097000000000001</v>
       </c>
       <c r="B8" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>16</v>
@@ -9600,7 +9610,7 @@
   <mergeCells count="1">
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fig.12.xlsx
+++ b/Fig.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VPP\原始数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A452D4-9BD6-48AD-98EF-D204C4FF04D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D074409-8751-45FF-864A-A8BBE089A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>Feature point</t>
-  </si>
-  <si>
-    <t>(Mpa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(%)</t>
@@ -153,6 +149,10 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>(MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -539,17 +539,17 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -559,8 +559,8 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>27</v>
@@ -576,8 +576,8 @@
       <c r="B4" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>232</v>
@@ -593,8 +593,8 @@
       <c r="B5" s="1">
         <v>5.1399999999999996E-3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>300</v>
@@ -610,8 +610,8 @@
       <c r="B6" s="1">
         <v>6.43E-3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>161</v>
@@ -627,8 +627,8 @@
       <c r="B7" s="1">
         <v>7.7099999999999998E-3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>71</v>
@@ -644,8 +644,8 @@
       <c r="B8" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>16</v>
